--- a/public/DataMatkul/Test Untuk Ahmad.xlsx
+++ b/public/DataMatkul/Test Untuk Ahmad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Tugas Akhir Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8180C0F-6D07-45DC-BAE8-8426042B5993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36359272-066C-4783-8652-D66CA74F7E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="6450" windowWidth="21555" windowHeight="12630" xr2:uid="{9D47C813-3F7D-4C01-A41C-7F3A67061965}"/>
+    <workbookView xWindow="5865" yWindow="2985" windowWidth="21555" windowHeight="12630" xr2:uid="{9D47C813-3F7D-4C01-A41C-7F3A67061965}"/>
   </bookViews>
   <sheets>
     <sheet name="template-cpl-mahasiswa" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Daffa Maulana Wisesa</t>
   </si>
@@ -105,7 +105,16 @@
     <t>Ganjil</t>
   </si>
   <si>
-    <t>PTSK6101</t>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Nathania Wisesa</t>
+  </si>
+  <si>
+    <t>Nathan Wisesa</t>
+  </si>
+  <si>
+    <t>PTSK6666</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46F60D7-6E54-4C5C-93AE-B0BB5EB97333}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +532,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -564,7 +573,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -605,7 +614,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -646,7 +655,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -687,7 +696,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -724,6 +733,129 @@
       </c>
       <c r="M6">
         <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21120120140040</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21120120140157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21120120140158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
